--- a/Chandrashekaran-annotations/GERN_Q3_2012.xlsx
+++ b/Chandrashekaran-annotations/GERN_Q3_2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17FAED8-5354-4A13-A421-74889FD22765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813342E4-5795-4FA3-97C0-AC56A0B6D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,6 +678,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -692,6 +710,24 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -706,6 +742,24 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -720,6 +774,24 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -734,6 +806,24 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -748,6 +838,24 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -762,6 +870,24 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -776,6 +902,24 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -790,6 +934,24 @@
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -804,6 +966,24 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -818,6 +998,24 @@
       <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -832,6 +1030,24 @@
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -846,6 +1062,24 @@
       <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -860,6 +1094,24 @@
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -874,8 +1126,26 @@
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -888,8 +1158,26 @@
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -902,8 +1190,26 @@
       <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -916,8 +1222,26 @@
       <c r="D19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -930,8 +1254,26 @@
       <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -944,8 +1286,26 @@
       <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -958,8 +1318,26 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -972,8 +1350,26 @@
       <c r="D23" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -986,8 +1382,26 @@
       <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1000,8 +1414,26 @@
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1014,8 +1446,26 @@
       <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1028,8 +1478,26 @@
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1042,8 +1510,26 @@
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1055,6 +1541,24 @@
       </c>
       <c r="D29" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekaran-annotations/GERN_Q3_2012.xlsx
+++ b/Chandrashekaran-annotations/GERN_Q3_2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813342E4-5795-4FA3-97C0-AC56A0B6D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315FC8F-98E4-43E3-8CC5-7C026493B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
